--- a/project/templates/Performance test_case.xlsx
+++ b/project/templates/Performance test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongnhat/Desktop/Project-KTPM/project/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FE5B37-4162-E749-BA91-8B04D273816C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FE82A0-8A55-2848-9221-AB8CE989E147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20060" tabRatio="821" activeTab="2" xr2:uid="{54D1C333-A8F3-504F-8D67-28F9DF72E520}"/>
   </bookViews>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="135">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -490,18 +490,6 @@
 Error Rate = 0%</t>
   </si>
   <si>
-    <t>Kiểm tra thời gian tải Menu Page</t>
-  </si>
-  <si>
-    <t>VUsers: 50 (Normal Load)
-Ramp-up: 60s</t>
-  </si>
-  <si>
-    <t>VUsers: 500
-Ramp-up: 5–10 phút
-Duration: 15 phút</t>
-  </si>
-  <si>
     <t>Hệ thống vẫn phản hồi (Responsive)
 Error Rate &lt; 1%</t>
   </si>
@@ -541,6 +529,19 @@
   </si>
   <si>
     <t>Kiểm tra hệ thống khi 500 users thực hiện thêm sản phẩm vào giỏ hàng đồng thời</t>
+  </si>
+  <si>
+    <t>VUsers: 50 (Normal Load)
+Ramp-up: 60s
+Loop: 20 lần</t>
+  </si>
+  <si>
+    <t>VUsers: 500
+Ramp-up: 5-10 phút
+Duration: 15 phút</t>
+  </si>
+  <si>
+    <t>Kiểm tra thời gian tải Admin Page</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1183,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1530,6 +1531,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2348,14 +2352,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:F11"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="31.6640625" style="8" customWidth="1"/>
     <col min="6" max="6" width="23.83203125" style="8" customWidth="1"/>
@@ -2449,16 +2453,16 @@
     </row>
     <row r="6" spans="1:9" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="69">
-        <f>COUNTIF(G9:G964,"Pass")</f>
-        <v>0</v>
+        <f>COUNTIF(F9:F964,"Pass")</f>
+        <v>3</v>
       </c>
       <c r="B6" s="70">
-        <f>COUNTIF(G9:G964,"Fail")</f>
+        <f>COUNTIF(F9:F964,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="70">
         <f>E6-D6-B6-A6</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="71">
         <f>COUNTIF(G$9:G$964,"N/A")</f>
@@ -2517,7 +2521,9 @@
       <c r="E9" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="109"/>
+      <c r="F9" s="128" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="73" customHeight="1">
       <c r="A10" s="110" t="s">
@@ -2527,15 +2533,17 @@
         <v>104</v>
       </c>
       <c r="C10" s="111" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D10" s="111" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E10" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="109"/>
+      <c r="F10" s="128" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="73" customHeight="1">
       <c r="A11" s="110" t="s">
@@ -2545,15 +2553,17 @@
         <v>113</v>
       </c>
       <c r="C11" s="111" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D11" s="111" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E11" s="111" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="109"/>
+        <v>121</v>
+      </c>
+      <c r="F11" s="128" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="73" customHeight="1"/>
     <row r="13" spans="1:9" ht="73" customHeight="1"/>
@@ -2588,15 +2598,16 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="8" customWidth="1"/>
-    <col min="4" max="5" width="36" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="41" style="8" customWidth="1"/>
+    <col min="4" max="4" width="36" style="8" customWidth="1"/>
+    <col min="5" max="5" width="54.5" style="8" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="8" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" style="8" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" style="8" customWidth="1"/>
@@ -2756,13 +2767,13 @@
         <v>105</v>
       </c>
       <c r="C9" s="111" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D9" s="111" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E9" s="111" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F9" s="109"/>
     </row>
@@ -2774,13 +2785,13 @@
         <v>105</v>
       </c>
       <c r="C10" s="111" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D10" s="111" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E10" s="111" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F10" s="109"/>
     </row>
@@ -2792,13 +2803,13 @@
         <v>117</v>
       </c>
       <c r="C11" s="111" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D11" s="111" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E11" s="111" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F11" s="109"/>
     </row>
@@ -3227,7 +3238,7 @@
       </c>
       <c r="D11" s="89">
         <f>Module1!A6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="89">
         <f>Module1!B6</f>
@@ -3235,7 +3246,7 @@
       </c>
       <c r="F11" s="89">
         <f>Module1!C6</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" s="90">
         <f>Module1!D6</f>
@@ -3293,7 +3304,7 @@
       </c>
       <c r="D14" s="94">
         <f>SUM(D9:D13)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" s="94">
         <f>SUM(E9:E13)</f>
@@ -3301,7 +3312,7 @@
       </c>
       <c r="F14" s="94">
         <f>SUM(F9:F13)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G14" s="94">
         <f>SUM(G9:G13)</f>
@@ -3326,7 +3337,7 @@
       </c>
       <c r="E16" s="100">
         <f>(D14+E14)*100/(H14-G14)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>48</v>
@@ -3339,7 +3350,7 @@
       </c>
       <c r="E17" s="100">
         <f>D14*100/(H14-G14)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>48</v>

--- a/project/templates/Performance test_case.xlsx
+++ b/project/templates/Performance test_case.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongnhat/Desktop/Project-KTPM/project/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FE82A0-8A55-2848-9221-AB8CE989E147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2779E87-DE91-A844-A23E-0F3208BC4169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20060" tabRatio="821" activeTab="2" xr2:uid="{54D1C333-A8F3-504F-8D67-28F9DF72E520}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20060" tabRatio="821" activeTab="4" xr2:uid="{54D1C333-A8F3-504F-8D67-28F9DF72E520}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
     <sheet name="Test case List" sheetId="2" r:id="rId2"/>
     <sheet name="Module1" sheetId="3" r:id="rId3"/>
     <sheet name="Module2" sheetId="9" r:id="rId4"/>
-    <sheet name="testdata" sheetId="8" r:id="rId5"/>
-    <sheet name="Test Report" sheetId="5" r:id="rId6"/>
+    <sheet name="Test Report" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Module1!$A$8:$G$8</definedName>
@@ -117,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="82">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -275,165 +274,6 @@
   </si>
   <si>
     <t>&lt;List of documents which are referred in this version.&gt;</t>
-  </si>
-  <si>
-    <t>TestData01</t>
-  </si>
-  <si>
-    <t>TestData02</t>
-  </si>
-  <si>
-    <t>TestData03</t>
-  </si>
-  <si>
-    <t>TestData04</t>
-  </si>
-  <si>
-    <t>TestData05</t>
-  </si>
-  <si>
-    <t>TestData06</t>
-  </si>
-  <si>
-    <t>TestData07</t>
-  </si>
-  <si>
-    <t>TestData08</t>
-  </si>
-  <si>
-    <t>TestData09</t>
-  </si>
-  <si>
-    <t>TestData10</t>
-  </si>
-  <si>
-    <t>TestData11</t>
-  </si>
-  <si>
-    <t>TC_BC_01</t>
-  </si>
-  <si>
-    <t>TC_BC_02</t>
-  </si>
-  <si>
-    <t>TC_BC_03</t>
-  </si>
-  <si>
-    <t>TC_BC_04</t>
-  </si>
-  <si>
-    <t>TC_BC_05</t>
-  </si>
-  <si>
-    <t>TC_BC_06</t>
-  </si>
-  <si>
-    <t>TC_BC_07</t>
-  </si>
-  <si>
-    <t>TC_OSC_01</t>
-  </si>
-  <si>
-    <t>TC_OSC_02</t>
-  </si>
-  <si>
-    <t>TC_OSC_03</t>
-  </si>
-  <si>
-    <t>TC_OSC_04</t>
-  </si>
-  <si>
-    <t>TC_OSC_05</t>
-  </si>
-  <si>
-    <t>TC_OSC_06</t>
-  </si>
-  <si>
-    <t>TestDataID</t>
-  </si>
-  <si>
-    <t>Data Details</t>
-  </si>
-  <si>
-    <t>Used Test Case</t>
-  </si>
-  <si>
-    <t>Homepage layout test data</t>
-  </si>
-  <si>
-    <t>Valid login credentials</t>
-  </si>
-  <si>
-    <t>Add-to-cart product data</t>
-  </si>
-  <si>
-    <t>Payment data</t>
-  </si>
-  <si>
-    <t>UI reference data</t>
-  </si>
-  <si>
-    <t>Windows layout test data</t>
-  </si>
-  <si>
-    <t>macOS layout test data</t>
-  </si>
-  <si>
-    <t>Login data for OS compatibility</t>
-  </si>
-  <si>
-    <t>Add-to-cart data for OS compatibility</t>
-  </si>
-  <si>
-    <t>TestData12</t>
-  </si>
-  <si>
-    <t>Payment data for OS compatibility</t>
-  </si>
-  <si>
-    <t>TestData13</t>
-  </si>
-  <si>
-    <t>UI reference data for OS compatibility</t>
-  </si>
-  <si>
-    <t>Font, color, icons consistent</t>
-  </si>
-  <si>
-    <t>Product: Burger; Detail: Ngon</t>
-  </si>
-  <si>
-    <t>OS: Windows 11; Resolution: 1920x1080</t>
-  </si>
-  <si>
-    <t>OS: macOS 26; Resolution: 1440x900</t>
-  </si>
-  <si>
-    <t>Product: Pizza; Detail: ngon</t>
-  </si>
-  <si>
-    <t>Visa; Amount: Valid order total</t>
-  </si>
-  <si>
-    <t>Font: Outfit; Icons: Material Icons</t>
-  </si>
-  <si>
-    <t>Username: user1@example.com; Password: 123123123</t>
-  </si>
-  <si>
-    <t>Credit Card: 4242 4242 4242; Exp: 12/27; CVV: 123; Name: Tinh</t>
-  </si>
-  <si>
-    <t>URL: Application homepage; URL admin:</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Module 1</t>
-  </si>
-  <si>
-    <t>Module 2</t>
   </si>
   <si>
     <t>Load Testing</t>
@@ -551,7 +391,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -692,17 +532,12 @@
     </font>
     <font>
       <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -725,12 +560,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="62"/>
         <bgColor indexed="56"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1183,7 +1012,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1471,20 +1300,14 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1520,9 +1343,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1531,9 +1351,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1949,13 +1766,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -1966,11 +1783,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1980,36 +1797,36 @@
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="115" t="str">
+      <c r="C6" s="111" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
       <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="114"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2156,39 +1973,39 @@
       <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119" t="str">
+      <c r="C3" s="114"/>
+      <c r="D3" s="115" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119" t="str">
+      <c r="C4" s="114"/>
+      <c r="D4" s="115" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
     </row>
     <row r="5" spans="2:6" s="38" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="117" t="s">
+      <c r="C5" s="112"/>
+      <c r="D5" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="39"/>
@@ -2226,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="D9" s="50" t="s">
         <v>25</v>
@@ -2239,7 +2056,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="D10" s="101" t="s">
         <v>26</v>
@@ -2350,9 +2167,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D16ABC5-B443-FF41-BA73-04E67E6728A8}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -2385,13 +2202,13 @@
       <c r="A2" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
       <c r="I2" s="61" t="s">
@@ -2402,13 +2219,13 @@
       <c r="A3" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
       <c r="I3" s="61" t="s">
@@ -2419,11 +2236,11 @@
       <c r="A4" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
       <c r="I4" s="64"/>
@@ -2441,10 +2258,10 @@
       <c r="D5" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="123" t="s">
+      <c r="E5" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="123"/>
+      <c r="F5" s="119"/>
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
       <c r="I5" s="61" t="s">
@@ -2468,10 +2285,10 @@
         <f>COUNTIF(G$9:G$964,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="120">
+      <c r="E6" s="116">
         <v>3</v>
       </c>
-      <c r="F6" s="120"/>
+      <c r="F6" s="116"/>
       <c r="G6" s="68"/>
       <c r="H6" s="68"/>
       <c r="I6" s="61" t="s">
@@ -2490,78 +2307,78 @@
         <v>38</v>
       </c>
       <c r="B8" s="103" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="C8" s="103" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="D8" s="103" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="E8" s="103" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="F8" s="104" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="73" customHeight="1">
-      <c r="A9" s="110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="110" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="128" t="s">
+      <c r="A9" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="107" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="73" customHeight="1">
-      <c r="A10" s="110" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="110" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="111" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="111" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="128" t="s">
+      <c r="A10" s="105" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="107" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="73" customHeight="1">
-      <c r="A11" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="110" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="128" t="s">
+      <c r="A11" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2598,7 +2415,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -2632,13 +2449,13 @@
       <c r="A2" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
       <c r="I2" s="61" t="s">
@@ -2650,13 +2467,13 @@
       <c r="A3" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
       <c r="I3" s="61" t="s">
@@ -2668,11 +2485,11 @@
       <c r="A4" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
       <c r="I4" s="64"/>
@@ -2691,10 +2508,10 @@
       <c r="D5" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="123" t="s">
+      <c r="E5" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="123"/>
+      <c r="F5" s="119"/>
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
       <c r="I5" s="61" t="s">
@@ -2705,7 +2522,7 @@
     <row r="6" spans="1:10" s="61" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="69">
         <f>COUNTIF(F8:F984,"Pass")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="70">
         <f>COUNTIF(F8:F984,"Fail")</f>
@@ -2713,17 +2530,17 @@
       </c>
       <c r="C6" s="70">
         <f>E6-D6-B6-A6</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="71">
         <f>COUNTIF(F$8:F$984,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="120">
+      <c r="E6" s="116">
         <f>ROWS(A9:A11)</f>
         <v>3</v>
       </c>
-      <c r="F6" s="120"/>
+      <c r="F6" s="116"/>
       <c r="G6" s="68"/>
       <c r="H6" s="68"/>
       <c r="I6" s="61" t="s">
@@ -2739,79 +2556,85 @@
       <c r="H7" s="68"/>
       <c r="J7" s="68"/>
     </row>
-    <row r="8" spans="1:10" ht="28">
+    <row r="8" spans="1:10" ht="14">
       <c r="A8" s="103" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="103" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="C8" s="103" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="D8" s="103" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="E8" s="103" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="F8" s="104" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="54">
-      <c r="A9" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="110" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="111" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="111" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="111" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="109"/>
-    </row>
-    <row r="10" spans="1:10" ht="54">
-      <c r="A10" s="110" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="110" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="111" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="109"/>
+      <c r="A9" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="107" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="36">
+      <c r="A10" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="107" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="54">
-      <c r="A11" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="111" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="111" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="111" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="109"/>
+      <c r="A11" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="107" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2838,257 +2661,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC9DE56-4F34-3847-9DE3-3FE1ACFF2F2A}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="43.83203125" customWidth="1"/>
-    <col min="4" max="4" width="70.1640625" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" customWidth="1"/>
-    <col min="6" max="6" width="33.5" customWidth="1"/>
-    <col min="7" max="7" width="28.5" customWidth="1"/>
-    <col min="8" max="8" width="33.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18">
-      <c r="A1" s="108" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="105" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="105" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="105" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18">
-      <c r="A2" s="124" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="106" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="124"/>
-      <c r="B3" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="106" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18">
-      <c r="A4" s="124"/>
-      <c r="B4" s="106" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="106" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19">
-      <c r="A5" s="124"/>
-      <c r="B5" s="106" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="106" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="106" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18">
-      <c r="A6" s="124"/>
-      <c r="B6" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="106" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="106" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18">
-      <c r="A7" s="124"/>
-      <c r="B7" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="106" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="106" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18">
-      <c r="A8" s="124"/>
-      <c r="B8" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="106" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="106" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="106" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18">
-      <c r="A9" s="124" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="106" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="106" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="106" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="106" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18">
-      <c r="A10" s="124"/>
-      <c r="B10" s="106" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="106" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="106" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="106" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="19">
-      <c r="A11" s="124"/>
-      <c r="B11" s="106" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="106" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="106" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18">
-      <c r="A12" s="124"/>
-      <c r="B12" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="106" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="106" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="106" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18">
-      <c r="A13" s="124"/>
-      <c r="B13" s="106" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="106" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="106" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18">
-      <c r="A14" s="124"/>
-      <c r="B14" s="106" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="106" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="106" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="106" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A14"/>
-  </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64336199-8AF6-B940-8B43-002AEC695EDA}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -3102,15 +2679,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="73"/>
@@ -3126,14 +2703,14 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="125" t="s">
+      <c r="D3" s="115"/>
+      <c r="E3" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="125"/>
+      <c r="F3" s="120"/>
       <c r="G3" s="76"/>
       <c r="H3" s="77"/>
     </row>
@@ -3141,14 +2718,14 @@
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="119"/>
-      <c r="E4" s="125" t="s">
+      <c r="D4" s="115"/>
+      <c r="E4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="125"/>
+      <c r="F4" s="120"/>
       <c r="G4" s="76"/>
       <c r="H4" s="77"/>
     </row>
@@ -3156,15 +2733,15 @@
       <c r="B5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="119" t="str">
+      <c r="C5" s="115" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="119"/>
-      <c r="E5" s="125" t="s">
+      <c r="D5" s="115"/>
+      <c r="E5" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="125"/>
+      <c r="F5" s="120"/>
       <c r="G5" s="76"/>
       <c r="H5" s="79" t="s">
         <v>41</v>
@@ -3175,14 +2752,14 @@
       <c r="B6" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="126" t="s">
+      <c r="C6" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="73"/>
@@ -3267,7 +2844,7 @@
       </c>
       <c r="D12" s="89">
         <f>Module2!A6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" s="89">
         <f>Module2!B6</f>
@@ -3275,13 +2852,13 @@
       </c>
       <c r="F12" s="89">
         <f>Module2!C6</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12" s="89">
         <f>Module2!D6</f>
         <v>0</v>
       </c>
-      <c r="H12" s="89">
+      <c r="H12" s="91">
         <f>Module2!E6</f>
         <v>3</v>
       </c>
@@ -3304,7 +2881,7 @@
       </c>
       <c r="D14" s="94">
         <f>SUM(D9:D13)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E14" s="94">
         <f>SUM(E9:E13)</f>
@@ -3312,7 +2889,7 @@
       </c>
       <c r="F14" s="94">
         <f>SUM(F9:F13)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" s="94">
         <f>SUM(G9:G13)</f>
@@ -3337,7 +2914,7 @@
       </c>
       <c r="E16" s="100">
         <f>(D14+E14)*100/(H14-G14)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>48</v>
@@ -3350,7 +2927,7 @@
       </c>
       <c r="E17" s="100">
         <f>D14*100/(H14-G14)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>48</v>
